--- a/biology/Biochimie/ADN_polymérase_bêta/ADN_polymérase_bêta.xlsx
+++ b/biology/Biochimie/ADN_polymérase_bêta/ADN_polymérase_bêta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_b%C3%AAta</t>
+          <t>ADN_polymérase_bêta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN polymérase β, ou pol β, est une ADN polymérase présente chez les eucaryotes et qui maintient l'intégrité du matériel génétique en assurant la réparation de l'ADN par excision de base (BER en anglais). Cette enzyme doit être étroitement régulée car sa surexpression est associée à un certain nombre de cancers[2],[3],[4],[5] tandis qu'une déficience en pol β fonctionnelle se traduit par une hypersensibilité aux alkylants, à l'apoptose induite et à la fragmentation des chromosomes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN polymérase β, ou pol β, est une ADN polymérase présente chez les eucaryotes et qui maintient l'intégrité du matériel génétique en assurant la réparation de l'ADN par excision de base (BER en anglais). Cette enzyme doit être étroitement régulée car sa surexpression est associée à un certain nombre de cancers tandis qu'une déficience en pol β fonctionnelle se traduit par une hypersensibilité aux alkylants, à l'apoptose induite et à la fragmentation des chromosomes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_b%C3%AAta</t>
+          <t>ADN_polymérase_bêta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Différences entre ADN polymérase alpha et bêta</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société ADN-research-Lab explique très bien cette différence entre ces deux enzymes:
 -elle est dû au caryotype qui varie selon l'individu et donc qui favorisera la présence d'une protéine hélicase qui transformera l'ADN polymérase alpha en bêta
